--- a/dados/SimulacaoPeloDelta.xlsx
+++ b/dados/SimulacaoPeloDelta.xlsx
@@ -571,12 +571,12 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>0.9987</t>
+          <t>0.9992</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>0.5642</t>
+          <t>0.5883</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -595,17 +595,17 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>R$ -848.58</t>
+          <t>R$ -710.32</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>R$ 144.37</t>
+          <t>R$ -17.93</t>
         </is>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>2025-04-08</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
@@ -647,12 +647,12 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>0.9963</t>
+          <t>0.9976</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>0.4400</t>
+          <t>0.4645</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -667,21 +667,21 @@
         <v>30</v>
       </c>
       <c r="M3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>R$ -890.75</t>
+          <t>R$ -935.91</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>R$ 241.50</t>
+          <t>R$ -99.83</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>2025-04-10</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -723,12 +723,12 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0.9929</t>
+          <t>0.9952</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0.3613</t>
+          <t>0.3847</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -747,12 +747,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>R$ -859.30</t>
+          <t>R$ -960.01</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>R$ 77.51</t>
+          <t>R$ -64.09</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -799,17 +799,17 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0.9871</t>
+          <t>0.9911</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.2893</t>
+          <t>0.3107</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>ITM → OTM</t>
+          <t>ITM → ATM</t>
         </is>
       </c>
       <c r="K5" t="n">
@@ -823,17 +823,17 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>R$ -839.04</t>
+          <t>R$ -966.68</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>R$ 34.03</t>
+          <t>R$ -69.38</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>2025-04-03</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
@@ -875,12 +875,12 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>0.9779</t>
+          <t>0.9843</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.2257</t>
+          <t>0.2447</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -899,12 +899,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>R$ -870.50</t>
+          <t>R$ -964.62</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>R$ 0.00</t>
+          <t>R$ -108.90</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -951,7 +951,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>0.5920</t>
+          <t>0.6628</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -968,24 +968,24 @@
         <v>0.15</v>
       </c>
       <c r="L7" t="n">
-        <v>30</v>
+        <v>252</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>R$ 825.50</t>
+          <t>R$ 1051.01</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>R$ 1063.54</t>
+          <t>R$ 1051.01</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>2025-06-10</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
@@ -1027,7 +1027,7 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>0.3832</t>
+          <t>0.4271</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -1051,17 +1051,17 @@
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>R$ 277.65</t>
+          <t>R$ 437.61</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>R$ 940.94</t>
+          <t>R$ 960.34</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -1103,12 +1103,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>0.3271</t>
+          <t>0.3690</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>0.9981</t>
+          <t>0.9982</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1127,17 +1127,17 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>R$ 212.08</t>
+          <t>R$ 278.37</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>R$ 877.31</t>
+          <t>R$ 875.59</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>2025-06-11</t>
+          <t>2025-06-10</t>
         </is>
       </c>
     </row>
@@ -1179,7 +1179,7 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>0.5048</t>
+          <t>0.5519</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1196,19 +1196,19 @@
         <v>0.1</v>
       </c>
       <c r="L10" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="M10" t="n">
         <v>6</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>R$ 1807.26</t>
+          <t>R$ 2020.20</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>R$ 1807.26</t>
+          <t>R$ 2020.20</t>
         </is>
       </c>
       <c r="P10" t="inlineStr">
@@ -1255,12 +1255,12 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>0.2263</t>
+          <t>0.2569</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0.7238</t>
+          <t>0.7320</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>R$ 404.12</t>
+          <t>R$ 590.57</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>R$ 564.99</t>
+          <t>R$ 724.28</t>
         </is>
       </c>
       <c r="P11" t="inlineStr">
@@ -1331,12 +1331,12 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>0.1751</t>
+          <t>0.2016</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>0.1638</t>
+          <t>0.1700</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1345,27 +1345,27 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="L12" t="n">
         <v>30</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>R$ 342.58</t>
+          <t>R$ 578.31</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>R$ 452.55</t>
+          <t>R$ 578.31</t>
         </is>
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>2025-06-17</t>
+          <t>2025-06-18</t>
         </is>
       </c>
     </row>
